--- a/src/test/resources/DataProvider/RWC.xlsx
+++ b/src/test/resources/DataProvider/RWC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\gitbuild-MyLocalRepository(1)\gitbuild-MyLocalRepository\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED84A1-AA11-44D8-B861-51CFF31E424E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBD4A4-FDEC-4496-8EB7-DC7BFAEBCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1722,7 +1722,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>

--- a/src/test/resources/DataProvider/RWC.xlsx
+++ b/src/test/resources/DataProvider/RWC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\gitbuild-MyLocalRepository(1)\gitbuild-MyLocalRepository\updated_celtic_project-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBD4A4-FDEC-4496-8EB7-DC7BFAEBCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AFA1D-AD6C-45B3-B3A9-590C3534C54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
@@ -1077,7 +1077,7 @@
     <t>30810</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>186819</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>61</v>
